--- a/github-bestwayhackdocs.xlsx
+++ b/github-bestwayhackdocs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac6b763cc55789fb/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{892BE704-F441-40F7-8FA1-2FDD9341C10C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C54C0220-8E10-4C3D-B00B-76A45336DECA}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{892BE704-F441-40F7-8FA1-2FDD9341C10C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4413CEBB-5113-4927-9A3E-5A4E7D0C0170}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-4950" windowWidth="29040" windowHeight="15840" xr2:uid="{2A300E50-41DE-48D9-B2D9-3F5242F6E223}"/>
   </bookViews>
@@ -47,18 +47,12 @@
     <t>ChipSelect, CS</t>
   </si>
   <si>
-    <t>Active HIGH</t>
-  </si>
-  <si>
     <t>Clock</t>
   </si>
   <si>
     <t>Data</t>
   </si>
   <si>
-    <t>Active HIGH. CIO is always driving the clock, but listens to DSP sometimes.</t>
-  </si>
-  <si>
     <t>This hack acts as the man in the middle. Repeat to the DSP what CIO is sending. If you want. And vice versa. Or you can lie to the CIO</t>
   </si>
   <si>
@@ -71,9 +65,6 @@
     <t>Well, it's just that. There is a small speaker in the DSP that can make more noise than the pump itself :-)</t>
   </si>
   <si>
-    <t>Active HIGH, shift out on falling edge. Latch on rising edge. CIO seems bad at this, or maybe there is noise on the line. This is filtered out in SW. Clock speed on the CIO is about 22KHz</t>
-  </si>
-  <si>
     <t>The DSP can handle at least 125 KHz.</t>
   </si>
   <si>
@@ -288,6 +279,15 @@
   </si>
   <si>
     <t>one of these must follow preceeding package.</t>
+  </si>
+  <si>
+    <t>Active LOW</t>
+  </si>
+  <si>
+    <t>Active LOW, shift out on falling edge. Latch on rising edge. CIO seems bad at this, or maybe there is noise on the line. This is filtered out in SW. Clock speed on the CIO is about 22KHz</t>
+  </si>
+  <si>
+    <t>Active LOW. CIO is always driving the clock, but listens to DSP sometimes.</t>
   </si>
 </sst>
 </file>
@@ -737,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9ACE800-2B8D-4EF4-9895-2C04FA122377}">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,17 +767,17 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -785,180 +785,180 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D16" s="1">
         <v>4000</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D17" s="1">
         <v>8000</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
         <v>39</v>
-      </c>
-      <c r="B28" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
         <v>40</v>
-      </c>
-      <c r="B29" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C31" s="3">
         <v>7</v>
@@ -985,18 +985,18 @@
         <v>0</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P31" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="P31" s="5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -1008,10 +1008,10 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -1024,37 +1024,37 @@
         <v>1</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="G33" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="H33" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="I33" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="J33" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="L33" t="s">
         <v>53</v>
       </c>
-      <c r="I33" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="L33" t="s">
-        <v>56</v>
-      </c>
       <c r="O33" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1070,7 +1070,7 @@
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O34" s="8"/>
       <c r="Q34" s="8"/>
@@ -1080,34 +1080,34 @@
         <v>3</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="G35" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="H35" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="I35" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="J35" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H35" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J35" s="4" t="s">
+      <c r="L35" t="s">
         <v>55</v>
       </c>
-      <c r="L35" t="s">
-        <v>58</v>
-      </c>
       <c r="P35" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
@@ -1123,7 +1123,7 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O36" s="6"/>
       <c r="Q36" s="6"/>
@@ -1133,37 +1133,37 @@
         <v>5</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="G37" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="H37" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="I37" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="J37" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H37" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="L37" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1179,7 +1179,7 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O38" s="8"/>
       <c r="Q38" s="8"/>
@@ -1192,31 +1192,31 @@
         <v>1</v>
       </c>
       <c r="D39" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="H39" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="I39" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="J39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L39" t="s">
         <v>63</v>
       </c>
-      <c r="H39" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L39" t="s">
-        <v>66</v>
-      </c>
       <c r="P39" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
@@ -1232,7 +1232,7 @@
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
@@ -1243,22 +1243,22 @@
         <v>1</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="L41" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
@@ -1274,44 +1274,44 @@
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
